--- a/DICOMTestData/Query/QueryTemplate.xlsx
+++ b/DICOMTestData/Query/QueryTemplate.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>PatientName</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>M-01</t>
+  </si>
+  <si>
+    <t>10122013</t>
+  </si>
+  <si>
+    <t>10012000</t>
+  </si>
+  <si>
+    <t>123456</t>
   </si>
 </sst>
 </file>
@@ -442,7 +451,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -492,17 +501,17 @@
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1">
-        <v>123456</v>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1">
-        <v>1012000</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1012013</v>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
